--- a/Resultados - Paper/Fase 2/Fase 2 - Frende de Pareto - 28 Millas.xlsx
+++ b/Resultados - Paper/Fase 2/Fase 2 - Frende de Pareto - 28 Millas.xlsx
@@ -23,15 +23,18 @@
     <t>28 Millas</t>
   </si>
   <si>
-    <t>SVR model con Kernel linear</t>
+    <t>ESN</t>
+  </si>
+  <si>
+    <t>Neuronas= 212 - Leaking rate=0.07</t>
+  </si>
+  <si>
+    <t>Par*1*3</t>
   </si>
   <si>
     <t>Segun-Config</t>
   </si>
   <si>
-    <t>Todas</t>
-  </si>
-  <si>
     <t>algoritmo</t>
   </si>
   <si>
@@ -75,21 +78,6 @@
   </si>
   <si>
     <t>variables</t>
-  </si>
-  <si>
-    <t>{'kernel': 'linear', 'C': 10, 'probability': False, 'degree': 1, 'epsilon': 0.1, 'shrinking': True, 'max_iter': -1, 'random_state': None, 'tol': 0.001, 'cache_size': 200, 'coef0': 0.0, 'gamma': 0.0, 'verbose': False} [[ -1.01694915e-01   3.58024691e-01   7.28925620e-01 ...,  -3.42857143e-01
-    4.80000000e-01   4.48365000e+03]
- [  1.18644068e-01   8.64197531e-02   4.24793388e-01 ...,  -1.14285714e-01
-    7.60000000e-01   4.76420000e+03]
- [  1.35593220e-01   1.11111111e-01   4.44628099e-01 ...,  -2.28571429e-01
-    9.00000000e-01   4.50041000e+03]
- ..., 
- [  1.35593220e-01   2.12345679e-01   3.95041322e-01 ...,   5.42857143e-01
-    8.40000000e-01   5.51376000e+03]
- [  1.45762712e-01   1.70370370e-01   6.95867769e-01 ...,   7.42857143e-01
-    9.60000000e-01   5.18678000e+03]
- [  2.30508475e-01   1.48148148e-02   5.76859504e-01 ...,   4.28571429e-01
-    9.60000000e-01   6.12564000e+03]]</t>
   </si>
 </sst>
 </file>
@@ -478,49 +466,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -534,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -561,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.595098815</v>
+        <v>0.613639305</v>
       </c>
       <c r="N2" t="n">
-        <v>353.3291105</v>
+        <v>339.890733</v>
       </c>
       <c r="O2" t="n">
         <v>100</v>
